--- a/Casos Cartera/Maestros.xlsx
+++ b/Casos Cartera/Maestros.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ManuelV\Documents\GitHub\Global-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Global-Testing\Casos Cartera\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2B50E7E2-D084-4DDE-932A-E6ACEA5B0F9C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="17" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Banco" sheetId="15" r:id="rId1"/>
@@ -38,12 +39,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Banco!$A$2:$R$50</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="539">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -1333,9 +1334,6 @@
   </si>
   <si>
     <t>TC_Cartera_UEExternas_EliminarSinExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_UEExternas_EliminarExportarExcel</t>
   </si>
   <si>
     <t>TC_Cartera_UEExternas_Eliminar</t>
@@ -1678,7 +1676,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2065,6 +2063,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2100,6 +2115,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2275,7 +2307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -3507,7 +3539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4495,7 +4527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5535,7 +5567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6523,7 +6555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -7511,7 +7543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -8498,7 +8530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -9486,7 +9518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -10618,7 +10650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -11605,11 +11637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11629,7 +11661,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>5</v>
@@ -11674,19 +11706,19 @@
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="40" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>376</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
@@ -11749,14 +11781,14 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L4" s="12" t="str">
-        <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Email para abrir ventada de envio de correo",""),IF(G4=1,", finalizando con la consulta mediante el filtro(s) ",""),IF(G4=1,$G$2,"")," ",IF(H4=1,$H$2,"")," ",IF(I4=1,$I$2,"")," ",IF(J4=1,$J$2,""))</f>
+        <f t="shared" ref="L4:L16" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Email para abrir ventada de envio de correo",""),IF(G4=1,", finalizando con la consulta mediante el filtro(s) ",""),IF(G4=1,$G$2,"")," ",IF(H4=1,$H$2,"")," ",IF(I4=1,$I$2,"")," ",IF(J4=1,$J$2,""))</f>
         <v xml:space="preserve">Validar funcionalidad Agregar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel   </v>
       </c>
       <c r="M4" s="12" t="str">
-        <f t="shared" ref="M4:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Email para abrir ventana de envio de correo",""),IF(G4=1,", finalizando con la consulta mediante el filtro ",""),IF(G4=1,$G$2,"")," ",IF(H4=1,$H$2,"")," ",IF(I4=1,$I$2,"")," ",IF(J4=1,$J$2,""))</f>
+        <f t="shared" ref="M4:M16" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Email para abrir ventana de envio de correo",""),IF(G4=1,", finalizando con la consulta mediante el filtro ",""),IF(G4=1,$G$2,"")," ",IF(H4=1,$H$2,"")," ",IF(I4=1,$I$2,"")," ",IF(J4=1,$J$2,""))</f>
         <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton agregar, hacer clic en boton exportar a excel   </v>
       </c>
       <c r="N4" s="7" t="s">
@@ -11785,7 +11817,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11884,7 +11916,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11919,7 +11951,7 @@
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -11975,30 +12007,27 @@
         <v>1</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="18">
-        <v>1</v>
-      </c>
       <c r="F11" s="18"/>
       <c r="G11" s="9">
         <v>1</v>
       </c>
       <c r="H11" s="9"/>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
       <c r="K11" s="7" t="s">
         <v>427</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel, finalizando con la consulta mediante el filtro(s) Nombre  Email </v>
+        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Usuarios Empresas Externas, finalizando con la consulta mediante el filtro(s) Nombre   Proceso Participa</v>
       </c>
       <c r="M11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton eliminar, hacer clic en boton exportar a excel, finalizando con la consulta mediante el filtro Nombre  Email </v>
-      </c>
-      <c r="N11" s="7" t="s">
+        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton eliminar, finalizando con la consulta mediante el filtro Nombre   Proceso Participa</v>
+      </c>
+      <c r="N11" s="31" t="s">
         <v>79</v>
       </c>
     </row>
@@ -12006,32 +12035,32 @@
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="9">
-        <v>1</v>
-      </c>
+      <c r="J12" s="9"/>
       <c r="K12" s="7" t="s">
         <v>428</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Usuarios Empresas Externas, finalizando con la consulta mediante el filtro(s) Nombre   Proceso Participa</v>
+        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel, hacer clic en enlace Email para abrir ventada de envio de correo   </v>
       </c>
       <c r="M12" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton eliminar, finalizando con la consulta mediante el filtro Nombre   Proceso Participa</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>79</v>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Email para abrir ventana de envio de correo   </v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -12044,23 +12073,21 @@
       <c r="E13" s="18">
         <v>1</v>
       </c>
-      <c r="F13" s="18">
-        <v>1</v>
-      </c>
+      <c r="F13" s="18"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel, hacer clic en enlace Email para abrir ventada de envio de correo   </v>
+        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel   </v>
       </c>
       <c r="M13" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Email para abrir ventana de envio de correo   </v>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar, hacer clic en boton exportar a excel   </v>
       </c>
       <c r="N13" s="7" t="s">
         <v>126</v>
@@ -12073,24 +12100,23 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel   </v>
+        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en enlace Email para abrir ventada de envio de correo   </v>
       </c>
       <c r="M14" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar, hacer clic en boton exportar a excel   </v>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar, hacer clic en enlace Email para abrir ventana de envio de correo   </v>
       </c>
       <c r="N14" s="7" t="s">
         <v>126</v>
@@ -12103,9 +12129,10 @@
       <c r="D15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" s="18">
-        <v>1</v>
-      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -12115,11 +12142,11 @@
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en enlace Email para abrir ventada de envio de correo   </v>
+        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel   </v>
       </c>
       <c r="M15" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar, hacer clic en enlace Email para abrir ventana de envio de correo   </v>
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar, hacer clic en boton exportar a excel   </v>
       </c>
       <c r="N15" s="7" t="s">
         <v>126</v>
@@ -12130,9 +12157,6 @@
         <v>1</v>
       </c>
       <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="18">
         <v>1</v>
       </c>
       <c r="F16" s="18"/>
@@ -12145,47 +12169,35 @@
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas, considerando la opcion exportar a excel   </v>
+        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas   </v>
       </c>
       <c r="M16" s="12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar, hacer clic en boton exportar a excel   </v>
-      </c>
-      <c r="N16" s="7" t="s">
+        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar   </v>
+      </c>
+      <c r="N16" s="31" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
+    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Validar funcionalidad Modificar del modulo Maestro, sub-modulo Usuarios Empresas Externas   </v>
-      </c>
-      <c r="M17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Usuarios Empresas Externas, hacer clic en boton modificar   </v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>126</v>
-      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="9"/>
@@ -12257,7 +12269,7 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="D23" s="5"/>
@@ -12267,12 +12279,20 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K23" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="D24" s="5"/>
@@ -12282,18 +12302,10 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>299</v>
-      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -12310,20 +12322,16 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="18"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="8"/>
       <c r="F26" s="18"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -12391,16 +12399,20 @@
       <c r="J32" s="9"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="C33" s="5"/>
       <c r="D33" s="8"/>
+      <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="7"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -12477,20 +12489,16 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="C39" s="5"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="7"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
@@ -12591,31 +12599,20 @@
       <c r="J48" s="9"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="C49" s="5"/>
       <c r="D49" s="8"/>
+      <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12633,7 +12630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
@@ -12658,7 +12655,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>5</v>
@@ -12669,7 +12666,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G1" s="49"/>
       <c r="H1" s="52" t="s">
@@ -12708,10 +12705,10 @@
         <v>7</v>
       </c>
       <c r="H2" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>445</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>446</v>
       </c>
       <c r="J2" s="44"/>
       <c r="K2" s="44"/>
@@ -12739,7 +12736,7 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Tipo Procesos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Acronimo para modificar registro",IF(G3=1,", hacer clic en enlace Acronimo para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(I3=1,$I$2,""))</f>
@@ -12774,7 +12771,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K4" s="12" t="str">
         <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Tipo Procesos",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Acronimo para modificar registro",IF(G4=1,", hacer clic en enlace Acronimo para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(I4=1,$I$2,""))</f>
@@ -12807,7 +12804,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12844,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12875,7 +12872,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12909,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12945,7 +12942,7 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -12978,7 +12975,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13012,7 +13009,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13041,7 +13038,7 @@
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13074,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13111,7 +13108,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13141,7 +13138,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13174,7 +13171,7 @@
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13202,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -13312,13 +13309,13 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K24" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="L24" s="39" t="s">
         <v>464</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>465</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>299</v>
@@ -13637,7 +13634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -14810,16 +14807,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14827,7 +14824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -14853,7 +14850,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>5</v>
@@ -14864,7 +14861,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G1" s="49"/>
       <c r="H1" s="52" t="s">
@@ -14903,7 +14900,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>14</v>
@@ -14933,10 +14930,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo CIA GPS",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace CIA GPS para modificar registro",IF(G3=1,", hacer clic en enlace CIA GPS para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
@@ -14973,7 +14970,7 @@
         <v>371</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K4" s="12" t="str">
         <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo CIA GPS",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace CIA GPS para modificar registro",IF(G4=1,", hacer clic en enlace CIA GPS para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
@@ -15004,7 +15001,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15037,7 +15034,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15066,7 +15063,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15099,10 +15096,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15138,7 +15135,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15167,7 +15164,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15199,7 +15196,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15226,7 +15223,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15258,10 +15255,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15296,7 +15293,7 @@
         <v>372</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15324,7 +15321,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="22"/>
       <c r="J15" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15355,7 +15352,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15381,7 +15378,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -15489,13 +15486,13 @@
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="L24" s="39" t="s">
         <v>486</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>487</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>299</v>
@@ -15815,7 +15812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
@@ -15841,7 +15838,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>5</v>
@@ -15895,10 +15892,10 @@
         <v>45</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K2" s="44"/>
       <c r="L2" s="44"/>
@@ -15927,7 +15924,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="23"/>
       <c r="K3" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Documentos por Proveedor",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(I3=1,$I$2,""),IF(J3=1,$J$2,""))</f>
@@ -15963,7 +15960,7 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Documentos por Proveedor",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(I4=1,$I$2,""),IF(J4=1,$J$2,""))</f>
@@ -15997,7 +15994,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16031,7 +16028,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16067,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16100,7 +16097,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="23"/>
       <c r="K8" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16135,7 +16132,7 @@
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16167,7 +16164,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16202,7 +16199,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="K11" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16230,7 +16227,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16264,7 +16261,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16298,7 +16295,7 @@
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16329,7 +16326,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="22"/>
       <c r="K15" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16361,7 +16358,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16394,7 +16391,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -16509,13 +16506,13 @@
       <c r="I24" s="9"/>
       <c r="J24" s="10"/>
       <c r="K24" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L24" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="M24" s="39" t="s">
         <v>505</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>506</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>299</v>
@@ -16860,10 +16857,10 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
@@ -16898,114 +16895,114 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>519</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D5" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>531</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>534</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="39" t="s">
         <v>538</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -17195,7 +17192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -18248,7 +18245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -19422,7 +19419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -20528,7 +20525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -21912,7 +21909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -22900,7 +22897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -23888,7 +23885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
